--- a/data/output/FV2304_FV2210/UTILMD/11002.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17076" uniqueCount="969">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17097" uniqueCount="969">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3154,6 +3154,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U779" totalsRowShown="0">
+  <autoFilter ref="A1:U779"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3443,7 +3473,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U779"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -39531,5 +39564,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11002.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11002.xlsx
@@ -5854,7 +5854,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -7042,7 +7042,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -7402,7 +7402,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -7934,7 +7934,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -8136,7 +8136,7 @@
         <v>873</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -8340,7 +8340,7 @@
         <v>874</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -8544,7 +8544,7 @@
         <v>875</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -8748,7 +8748,7 @@
         <v>876</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -9064,7 +9064,7 @@
         <v>877</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -9272,7 +9272,7 @@
         <v>878</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -9538,7 +9538,7 @@
         <v>881</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -9686,7 +9686,7 @@
         <v>882</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -10250,7 +10250,7 @@
         <v>884</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -10448,7 +10448,7 @@
         <v>887</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -10652,7 +10652,7 @@
         <v>888</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -10910,7 +10910,7 @@
         <v>884</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -11112,7 +11112,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -11368,7 +11368,7 @@
         <v>889</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -11570,7 +11570,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -11770,7 +11770,7 @@
         <v>890</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -12058,7 +12058,7 @@
         <v>891</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -12416,7 +12416,7 @@
         <v>894</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -12662,7 +12662,7 @@
         <v>896</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -12906,7 +12906,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -13096,7 +13096,7 @@
         <v>898</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -13382,7 +13382,7 @@
         <v>899</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -13638,7 +13638,7 @@
         <v>898</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -13826,7 +13826,7 @@
         <v>900</v>
       </c>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -14014,7 +14014,7 @@
         <v>898</v>
       </c>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -14202,7 +14202,7 @@
         <v>884</v>
       </c>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -14390,7 +14390,7 @@
         <v>901</v>
       </c>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -14678,7 +14678,7 @@
         <v>902</v>
       </c>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -14962,7 +14962,7 @@
         <v>898</v>
       </c>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -15360,7 +15360,7 @@
         <v>903</v>
       </c>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -15570,7 +15570,7 @@
         <v>884</v>
       </c>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -15912,7 +15912,7 @@
         <v>898</v>
       </c>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -16254,7 +16254,7 @@
         <v>898</v>
       </c>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -16690,7 +16690,7 @@
         <v>905</v>
       </c>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -16842,7 +16842,7 @@
         <v>906</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -17132,7 +17132,7 @@
         <v>907</v>
       </c>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -17390,7 +17390,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -17580,7 +17580,7 @@
         <v>887</v>
       </c>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -17878,7 +17878,7 @@
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -18014,7 +18014,7 @@
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="4"/>
-      <c r="M249" s="2" t="s">
+      <c r="M249" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N249" s="2" t="s">
@@ -18218,7 +18218,7 @@
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -18426,7 +18426,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -18632,7 +18632,7 @@
         <v>898</v>
       </c>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -18840,7 +18840,7 @@
         <v>909</v>
       </c>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -19046,7 +19046,7 @@
         <v>910</v>
       </c>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -19446,7 +19446,7 @@
         <v>913</v>
       </c>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -19690,7 +19690,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" s="4"/>
-      <c r="M282" s="2" t="s">
+      <c r="M282" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N282" s="2" t="s">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -20284,7 +20284,7 @@
         <v>917</v>
       </c>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -20472,7 +20472,7 @@
         <v>917</v>
       </c>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N298" s="2" t="s">
@@ -20716,7 +20716,7 @@
       </c>
       <c r="K303" s="2"/>
       <c r="L303" s="4"/>
-      <c r="M303" s="2" t="s">
+      <c r="M303" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N303" s="2" t="s">
@@ -20852,7 +20852,7 @@
       </c>
       <c r="K306" s="2"/>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -21002,7 +21002,7 @@
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -21206,7 +21206,7 @@
         <v>920</v>
       </c>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -21602,7 +21602,7 @@
         <v>921</v>
       </c>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -21852,7 +21852,7 @@
         <v>923</v>
       </c>
       <c r="L326" s="4"/>
-      <c r="M326" s="2" t="s">
+      <c r="M326" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N326" s="2" t="s">
@@ -22040,7 +22040,7 @@
         <v>898</v>
       </c>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -22178,7 +22178,7 @@
       </c>
       <c r="K333" s="2"/>
       <c r="L333" s="4"/>
-      <c r="M333" s="2" t="s">
+      <c r="M333" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N333" s="2" t="s">
@@ -22490,7 +22490,7 @@
         <v>924</v>
       </c>
       <c r="L339" s="4"/>
-      <c r="M339" s="2" t="s">
+      <c r="M339" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N339" s="2" t="s">
@@ -22736,7 +22736,7 @@
         <v>898</v>
       </c>
       <c r="L344" s="4"/>
-      <c r="M344" s="2" t="s">
+      <c r="M344" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N344" s="2" t="s">
@@ -22874,7 +22874,7 @@
       </c>
       <c r="K347" s="2"/>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -23018,7 +23018,7 @@
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="4"/>
-      <c r="M350" s="2" t="s">
+      <c r="M350" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N350" s="2" t="s">
@@ -23154,7 +23154,7 @@
       </c>
       <c r="K353" s="2"/>
       <c r="L353" s="4"/>
-      <c r="M353" s="2" t="s">
+      <c r="M353" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N353" s="2" t="s">
@@ -23466,7 +23466,7 @@
       </c>
       <c r="K359" s="2"/>
       <c r="L359" s="4"/>
-      <c r="M359" s="2" t="s">
+      <c r="M359" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N359" s="2" t="s">
@@ -23618,7 +23618,7 @@
         <v>925</v>
       </c>
       <c r="L362" s="4"/>
-      <c r="M362" s="2" t="s">
+      <c r="M362" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N362" s="2" t="s">
@@ -23826,7 +23826,7 @@
         <v>926</v>
       </c>
       <c r="L366" s="4"/>
-      <c r="M366" s="2" t="s">
+      <c r="M366" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N366" s="2" t="s">
@@ -24032,7 +24032,7 @@
         <v>927</v>
       </c>
       <c r="L370" s="4"/>
-      <c r="M370" s="2" t="s">
+      <c r="M370" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N370" s="2" t="s">
@@ -24170,7 +24170,7 @@
       </c>
       <c r="K373" s="2"/>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -24314,7 +24314,7 @@
       </c>
       <c r="K376" s="2"/>
       <c r="L376" s="4"/>
-      <c r="M376" s="2" t="s">
+      <c r="M376" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N376" s="2" t="s">
@@ -24450,7 +24450,7 @@
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="4"/>
-      <c r="M379" s="2" t="s">
+      <c r="M379" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N379" s="2" t="s">
@@ -25086,7 +25086,7 @@
         <v>930</v>
       </c>
       <c r="L391" s="4"/>
-      <c r="M391" s="2" t="s">
+      <c r="M391" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N391" s="2" t="s">
@@ -25224,7 +25224,7 @@
       </c>
       <c r="K394" s="2"/>
       <c r="L394" s="4"/>
-      <c r="M394" s="2" t="s">
+      <c r="M394" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N394" s="2" t="s">
@@ -25368,7 +25368,7 @@
       </c>
       <c r="K397" s="2"/>
       <c r="L397" s="4"/>
-      <c r="M397" s="2" t="s">
+      <c r="M397" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N397" s="2" t="s">
@@ -25612,7 +25612,7 @@
         <v>931</v>
       </c>
       <c r="L402" s="4"/>
-      <c r="M402" s="2" t="s">
+      <c r="M402" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N402" s="2" t="s">
@@ -25992,7 +25992,7 @@
         <v>932</v>
       </c>
       <c r="L410" s="4"/>
-      <c r="M410" s="2" t="s">
+      <c r="M410" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N410" s="2" t="s">
@@ -26130,7 +26130,7 @@
       </c>
       <c r="K413" s="2"/>
       <c r="L413" s="4"/>
-      <c r="M413" s="2" t="s">
+      <c r="M413" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N413" s="2" t="s">
@@ -26282,7 +26282,7 @@
         <v>934</v>
       </c>
       <c r="L416" s="4"/>
-      <c r="M416" s="2" t="s">
+      <c r="M416" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N416" s="2" t="s">
@@ -26428,7 +26428,7 @@
       </c>
       <c r="K419" s="2"/>
       <c r="L419" s="4"/>
-      <c r="M419" s="2" t="s">
+      <c r="M419" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N419" s="2" t="s">
@@ -26564,7 +26564,7 @@
       </c>
       <c r="K422" s="2"/>
       <c r="L422" s="4"/>
-      <c r="M422" s="2" t="s">
+      <c r="M422" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N422" s="2" t="s">
@@ -26818,7 +26818,7 @@
       </c>
       <c r="K427" s="2"/>
       <c r="L427" s="4"/>
-      <c r="M427" s="2" t="s">
+      <c r="M427" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N427" s="2" t="s">
@@ -26964,7 +26964,7 @@
         <v>898</v>
       </c>
       <c r="L430" s="4"/>
-      <c r="M430" s="2" t="s">
+      <c r="M430" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N430" s="2" t="s">
@@ -27360,7 +27360,7 @@
         <v>884</v>
       </c>
       <c r="L438" s="4"/>
-      <c r="M438" s="2" t="s">
+      <c r="M438" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N438" s="2" t="s">
@@ -27648,7 +27648,7 @@
         <v>935</v>
       </c>
       <c r="L444" s="4"/>
-      <c r="M444" s="2" t="s">
+      <c r="M444" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N444" s="2" t="s">
@@ -27786,7 +27786,7 @@
       </c>
       <c r="K447" s="2"/>
       <c r="L447" s="4"/>
-      <c r="M447" s="2" t="s">
+      <c r="M447" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N447" s="2" t="s">
@@ -27938,7 +27938,7 @@
         <v>936</v>
       </c>
       <c r="L450" s="4"/>
-      <c r="M450" s="2" t="s">
+      <c r="M450" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N450" s="2" t="s">
@@ -28084,7 +28084,7 @@
       </c>
       <c r="K453" s="2"/>
       <c r="L453" s="4"/>
-      <c r="M453" s="2" t="s">
+      <c r="M453" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N453" s="2" t="s">
@@ -29244,7 +29244,7 @@
         <v>884</v>
       </c>
       <c r="L475" s="4"/>
-      <c r="M475" s="2" t="s">
+      <c r="M475" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N475" s="2" t="s">
@@ -30422,7 +30422,7 @@
       </c>
       <c r="K497" s="2"/>
       <c r="L497" s="4"/>
-      <c r="M497" s="2" t="s">
+      <c r="M497" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N497" s="2" t="s">
@@ -30570,7 +30570,7 @@
         <v>938</v>
       </c>
       <c r="L500" s="4"/>
-      <c r="M500" s="2" t="s">
+      <c r="M500" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N500" s="2" t="s">
@@ -30778,7 +30778,7 @@
         <v>898</v>
       </c>
       <c r="L504" s="4"/>
-      <c r="M504" s="2" t="s">
+      <c r="M504" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N504" s="2" t="s">
@@ -30932,7 +30932,7 @@
         <v>898</v>
       </c>
       <c r="L507" s="4"/>
-      <c r="M507" s="2" t="s">
+      <c r="M507" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N507" s="2" t="s">
@@ -31138,7 +31138,7 @@
         <v>939</v>
       </c>
       <c r="L511" s="4"/>
-      <c r="M511" s="2" t="s">
+      <c r="M511" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N511" s="2" t="s">
@@ -31426,7 +31426,7 @@
         <v>940</v>
       </c>
       <c r="L517" s="4"/>
-      <c r="M517" s="2" t="s">
+      <c r="M517" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N517" s="2" t="s">
@@ -31564,7 +31564,7 @@
       </c>
       <c r="K520" s="2"/>
       <c r="L520" s="4"/>
-      <c r="M520" s="2" t="s">
+      <c r="M520" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N520" s="2" t="s">
@@ -31712,7 +31712,7 @@
       </c>
       <c r="K523" s="2"/>
       <c r="L523" s="4"/>
-      <c r="M523" s="2" t="s">
+      <c r="M523" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N523" s="2" t="s">
@@ -31848,7 +31848,7 @@
       </c>
       <c r="K526" s="2"/>
       <c r="L526" s="4"/>
-      <c r="M526" s="2" t="s">
+      <c r="M526" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N526" s="2" t="s">
@@ -31994,7 +31994,7 @@
         <v>940</v>
       </c>
       <c r="L529" s="4"/>
-      <c r="M529" s="2" t="s">
+      <c r="M529" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N529" s="2" t="s">
@@ -32132,7 +32132,7 @@
       </c>
       <c r="K532" s="2"/>
       <c r="L532" s="4"/>
-      <c r="M532" s="2" t="s">
+      <c r="M532" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N532" s="2" t="s">
@@ -32276,7 +32276,7 @@
       </c>
       <c r="K535" s="2"/>
       <c r="L535" s="4"/>
-      <c r="M535" s="2" t="s">
+      <c r="M535" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N535" s="2" t="s">
@@ -32412,7 +32412,7 @@
       </c>
       <c r="K538" s="2"/>
       <c r="L538" s="4"/>
-      <c r="M538" s="2" t="s">
+      <c r="M538" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N538" s="2" t="s">
@@ -32558,7 +32558,7 @@
       </c>
       <c r="K541" s="2"/>
       <c r="L541" s="4"/>
-      <c r="M541" s="2" t="s">
+      <c r="M541" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N541" s="2" t="s">
@@ -32762,7 +32762,7 @@
         <v>941</v>
       </c>
       <c r="L545" s="4"/>
-      <c r="M545" s="2" t="s">
+      <c r="M545" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N545" s="2" t="s">
@@ -32902,7 +32902,7 @@
         <v>942</v>
       </c>
       <c r="L548" s="4"/>
-      <c r="M548" s="2" t="s">
+      <c r="M548" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N548" s="2" t="s">
@@ -33162,7 +33162,7 @@
       </c>
       <c r="K553" s="2"/>
       <c r="L553" s="4"/>
-      <c r="M553" s="2" t="s">
+      <c r="M553" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N553" s="2" t="s">
@@ -33314,7 +33314,7 @@
         <v>944</v>
       </c>
       <c r="L556" s="4"/>
-      <c r="M556" s="2" t="s">
+      <c r="M556" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N556" s="2" t="s">
@@ -33462,7 +33462,7 @@
       </c>
       <c r="K559" s="2"/>
       <c r="L559" s="4"/>
-      <c r="M559" s="2" t="s">
+      <c r="M559" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N559" s="2" t="s">
@@ -33666,7 +33666,7 @@
         <v>946</v>
       </c>
       <c r="L563" s="4"/>
-      <c r="M563" s="2" t="s">
+      <c r="M563" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N563" s="2" t="s">
@@ -34062,7 +34062,7 @@
         <v>947</v>
       </c>
       <c r="L571" s="4"/>
-      <c r="M571" s="2" t="s">
+      <c r="M571" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N571" s="2" t="s">
@@ -34312,7 +34312,7 @@
         <v>923</v>
       </c>
       <c r="L576" s="4"/>
-      <c r="M576" s="2" t="s">
+      <c r="M576" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N576" s="2" t="s">
@@ -34500,7 +34500,7 @@
         <v>948</v>
       </c>
       <c r="L580" s="4"/>
-      <c r="M580" s="2" t="s">
+      <c r="M580" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N580" s="2" t="s">
@@ -34834,7 +34834,7 @@
         <v>949</v>
       </c>
       <c r="L587" s="4"/>
-      <c r="M587" s="2" t="s">
+      <c r="M587" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N587" s="2" t="s">
@@ -35022,7 +35022,7 @@
         <v>950</v>
       </c>
       <c r="L591" s="4"/>
-      <c r="M591" s="2" t="s">
+      <c r="M591" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N591" s="2" t="s">
@@ -35268,7 +35268,7 @@
         <v>951</v>
       </c>
       <c r="L596" s="4"/>
-      <c r="M596" s="2" t="s">
+      <c r="M596" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N596" s="2" t="s">
@@ -35406,7 +35406,7 @@
       </c>
       <c r="K599" s="2"/>
       <c r="L599" s="4"/>
-      <c r="M599" s="2" t="s">
+      <c r="M599" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N599" s="2" t="s">
@@ -35550,7 +35550,7 @@
       </c>
       <c r="K602" s="2"/>
       <c r="L602" s="4"/>
-      <c r="M602" s="2" t="s">
+      <c r="M602" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N602" s="2" t="s">
@@ -35688,7 +35688,7 @@
         <v>952</v>
       </c>
       <c r="L605" s="4"/>
-      <c r="M605" s="2" t="s">
+      <c r="M605" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N605" s="2" t="s">
@@ -35836,7 +35836,7 @@
       </c>
       <c r="K608" s="2"/>
       <c r="L608" s="4"/>
-      <c r="M608" s="2" t="s">
+      <c r="M608" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N608" s="2" t="s">
@@ -36148,7 +36148,7 @@
         <v>954</v>
       </c>
       <c r="L614" s="4"/>
-      <c r="M614" s="2" t="s">
+      <c r="M614" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N614" s="2" t="s">
@@ -36286,7 +36286,7 @@
       </c>
       <c r="K617" s="2"/>
       <c r="L617" s="4"/>
-      <c r="M617" s="2" t="s">
+      <c r="M617" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N617" s="2" t="s">
@@ -36430,7 +36430,7 @@
       </c>
       <c r="K620" s="2"/>
       <c r="L620" s="4"/>
-      <c r="M620" s="2" t="s">
+      <c r="M620" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N620" s="2" t="s">
@@ -36566,7 +36566,7 @@
       </c>
       <c r="K623" s="2"/>
       <c r="L623" s="4"/>
-      <c r="M623" s="2" t="s">
+      <c r="M623" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N623" s="2" t="s">
@@ -36712,7 +36712,7 @@
       </c>
       <c r="K626" s="2"/>
       <c r="L626" s="4"/>
-      <c r="M626" s="2" t="s">
+      <c r="M626" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N626" s="2" t="s">
@@ -37078,7 +37078,7 @@
         <v>955</v>
       </c>
       <c r="L633" s="4"/>
-      <c r="M633" s="2" t="s">
+      <c r="M633" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N633" s="2" t="s">
@@ -37216,7 +37216,7 @@
       </c>
       <c r="K636" s="2"/>
       <c r="L636" s="4"/>
-      <c r="M636" s="2" t="s">
+      <c r="M636" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N636" s="2" t="s">
@@ -37360,7 +37360,7 @@
       </c>
       <c r="K639" s="2"/>
       <c r="L639" s="4"/>
-      <c r="M639" s="2" t="s">
+      <c r="M639" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N639" s="2" t="s">
@@ -37496,7 +37496,7 @@
       </c>
       <c r="K642" s="2"/>
       <c r="L642" s="4"/>
-      <c r="M642" s="2" t="s">
+      <c r="M642" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N642" s="2" t="s">
@@ -37642,7 +37642,7 @@
       </c>
       <c r="K645" s="2"/>
       <c r="L645" s="4"/>
-      <c r="M645" s="2" t="s">
+      <c r="M645" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N645" s="2" t="s">
@@ -37792,7 +37792,7 @@
         <v>955</v>
       </c>
       <c r="L648" s="4"/>
-      <c r="M648" s="2" t="s">
+      <c r="M648" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N648" s="2" t="s">
@@ -38064,7 +38064,7 @@
       </c>
       <c r="K654" s="2"/>
       <c r="L654" s="4"/>
-      <c r="M654" s="2" t="s">
+      <c r="M654" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N654" s="2" t="s">
@@ -38214,7 +38214,7 @@
         <v>957</v>
       </c>
       <c r="L657" s="4"/>
-      <c r="M657" s="2" t="s">
+      <c r="M657" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N657" s="2" t="s">
@@ -38352,7 +38352,7 @@
       </c>
       <c r="K660" s="2"/>
       <c r="L660" s="4"/>
-      <c r="M660" s="2" t="s">
+      <c r="M660" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N660" s="2" t="s">
@@ -38498,7 +38498,7 @@
       </c>
       <c r="K663" s="2"/>
       <c r="L663" s="4"/>
-      <c r="M663" s="2" t="s">
+      <c r="M663" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N663" s="2" t="s">
@@ -38646,7 +38646,7 @@
       </c>
       <c r="K666" s="2"/>
       <c r="L666" s="4"/>
-      <c r="M666" s="2" t="s">
+      <c r="M666" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N666" s="2" t="s">
@@ -38782,7 +38782,7 @@
       </c>
       <c r="K669" s="2"/>
       <c r="L669" s="4"/>
-      <c r="M669" s="2" t="s">
+      <c r="M669" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N669" s="2" t="s">
@@ -38932,7 +38932,7 @@
         <v>958</v>
       </c>
       <c r="L672" s="4"/>
-      <c r="M672" s="2" t="s">
+      <c r="M672" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N672" s="2" t="s">
@@ -39068,7 +39068,7 @@
       </c>
       <c r="K675" s="2"/>
       <c r="L675" s="4"/>
-      <c r="M675" s="2" t="s">
+      <c r="M675" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N675" s="2" t="s">
@@ -39312,7 +39312,7 @@
       </c>
       <c r="K680" s="2"/>
       <c r="L680" s="4"/>
-      <c r="M680" s="2" t="s">
+      <c r="M680" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N680" s="2" t="s">
@@ -39510,7 +39510,7 @@
       </c>
       <c r="K684" s="2"/>
       <c r="L684" s="4"/>
-      <c r="M684" s="2" t="s">
+      <c r="M684" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N684" s="2" t="s">
@@ -39912,7 +39912,7 @@
         <v>960</v>
       </c>
       <c r="L692" s="4"/>
-      <c r="M692" s="2" t="s">
+      <c r="M692" s="3" t="s">
         <v>151</v>
       </c>
       <c r="N692" s="2" t="s">
@@ -40050,7 +40050,7 @@
       </c>
       <c r="K695" s="2"/>
       <c r="L695" s="4"/>
-      <c r="M695" s="2" t="s">
+      <c r="M695" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N695" s="2" t="s">
@@ -40198,7 +40198,7 @@
       </c>
       <c r="K698" s="2"/>
       <c r="L698" s="4"/>
-      <c r="M698" s="2" t="s">
+      <c r="M698" s="3" t="s">
         <v>152</v>
       </c>
       <c r="N698" s="2" t="s">
@@ -40538,7 +40538,7 @@
         <v>962</v>
       </c>
       <c r="L705" s="4"/>
-      <c r="M705" s="2" t="s">
+      <c r="M705" s="3" t="s">
         <v>153</v>
       </c>
       <c r="N705" s="2" t="s">
@@ -40676,7 +40676,7 @@
       </c>
       <c r="K708" s="2"/>
       <c r="L708" s="4"/>
-      <c r="M708" s="2" t="s">
+      <c r="M708" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N708" s="2" t="s">
@@ -40824,7 +40824,7 @@
       </c>
       <c r="K711" s="2"/>
       <c r="L711" s="4"/>
-      <c r="M711" s="2" t="s">
+      <c r="M711" s="3" t="s">
         <v>154</v>
       </c>
       <c r="N711" s="2" t="s">
@@ -41050,7 +41050,7 @@
       </c>
       <c r="K716" s="2"/>
       <c r="L716" s="4"/>
-      <c r="M716" s="2" t="s">
+      <c r="M716" s="3" t="s">
         <v>155</v>
       </c>
       <c r="N716" s="2" t="s">
@@ -41384,7 +41384,7 @@
       </c>
       <c r="K723" s="2"/>
       <c r="L723" s="4"/>
-      <c r="M723" s="2" t="s">
+      <c r="M723" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N723" s="2" t="s">
@@ -41786,7 +41786,7 @@
         <v>963</v>
       </c>
       <c r="L731" s="4"/>
-      <c r="M731" s="2" t="s">
+      <c r="M731" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N731" s="2" t="s">
@@ -42084,7 +42084,7 @@
         <v>964</v>
       </c>
       <c r="L737" s="4"/>
-      <c r="M737" s="2" t="s">
+      <c r="M737" s="3" t="s">
         <v>157</v>
       </c>
       <c r="N737" s="2" t="s">
@@ -42232,7 +42232,7 @@
       </c>
       <c r="K740" s="2"/>
       <c r="L740" s="4"/>
-      <c r="M740" s="2" t="s">
+      <c r="M740" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N740" s="2" t="s">
@@ -42382,7 +42382,7 @@
         <v>965</v>
       </c>
       <c r="L743" s="4"/>
-      <c r="M743" s="2" t="s">
+      <c r="M743" s="3" t="s">
         <v>158</v>
       </c>
       <c r="N743" s="2" t="s">
@@ -42882,7 +42882,7 @@
       </c>
       <c r="K753" s="2"/>
       <c r="L753" s="4"/>
-      <c r="M753" s="2" t="s">
+      <c r="M753" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N753" s="2" t="s">
@@ -43032,7 +43032,7 @@
         <v>967</v>
       </c>
       <c r="L756" s="4"/>
-      <c r="M756" s="2" t="s">
+      <c r="M756" s="3" t="s">
         <v>159</v>
       </c>
       <c r="N756" s="2" t="s">
@@ -43424,7 +43424,7 @@
         <v>969</v>
       </c>
       <c r="L764" s="4"/>
-      <c r="M764" s="2" t="s">
+      <c r="M764" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N764" s="2" t="s">
@@ -43924,7 +43924,7 @@
       </c>
       <c r="K774" s="2"/>
       <c r="L774" s="4"/>
-      <c r="M774" s="2" t="s">
+      <c r="M774" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N774" s="2" t="s">
@@ -44072,7 +44072,7 @@
       </c>
       <c r="K777" s="2"/>
       <c r="L777" s="4"/>
-      <c r="M777" s="2" t="s">
+      <c r="M777" s="3" t="s">
         <v>161</v>
       </c>
       <c r="N777" s="2"/>
